--- a/Examples/ParticipationAnalysis/ModalConfig_DC_test_v4_pert.xlsx
+++ b/Examples/ParticipationAnalysis/ModalConfig_DC_test_v4_pert.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24477\Desktop\Toolbox\Simplus-Grid-Tool\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A63236-0A89-4911-80E0-F736A2AAF82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF9D8ED-B0D8-4C32-8B44-9BBA364B77F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{08FBBA0B-B71F-4227-A069-0423E1E11C93}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{08FBBA0B-B71F-4227-A069-0423E1E11C93}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="60" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="61" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="62" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="114" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="115" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="116" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,13 +145,13 @@
     <t>Mode14</t>
   </si>
   <si>
-    <t>-96.86+112.07i</t>
+    <t>-96.87+112.07i</t>
   </si>
   <si>
     <t>Mode15</t>
   </si>
   <si>
-    <t>-96.86-112.07i</t>
+    <t>-96.87-112.07i</t>
   </si>
   <si>
     <t>Mode16</t>
@@ -661,7 +661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A617F6D-93AE-4D58-B48E-6DEEDE69C75E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD26DF0-F915-4F93-A12F-F06ADDB9BA8D}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -714,7 +714,7 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>-7999166.54</v>
+        <v>-7999166.6699999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="F13">
-        <v>-1680.04</v>
+        <v>-1680.03</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>-1554.31</v>
+        <v>-1554.3</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>-1252.1099999999999</v>
+        <v>-1251.97</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1170,8 +1170,8 @@
       <c r="E33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
-        <v>51</v>
+      <c r="F33">
+        <v>-1.67</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1204,8 +1204,8 @@
       <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="F35">
-        <v>-1.67</v>
+      <c r="F35" t="s">
+        <v>53</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1289,8 +1289,8 @@
       <c r="E40" t="s">
         <v>68</v>
       </c>
-      <c r="F40">
-        <v>-1.67</v>
+      <c r="F40" t="s">
+        <v>51</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1323,8 +1323,8 @@
       <c r="E42" t="s">
         <v>70</v>
       </c>
-      <c r="F42" t="s">
-        <v>53</v>
+      <c r="F42">
+        <v>-1.67</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1371,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1421E4A4-E65C-4989-B8FA-8A1E12463C81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EF816C-858A-4AC7-8169-D1F76421507C}">
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>-7999166.54</v>
+        <v>-7999166.6699999999</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="H14">
-        <v>-1680.04</v>
+        <v>-1680.03</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="H15">
-        <v>-1554.31</v>
+        <v>-1554.3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>22</v>
       </c>
       <c r="H16">
-        <v>-1252.1099999999999</v>
+        <v>-1251.97</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1792,8 +1792,8 @@
       <c r="G34" t="s">
         <v>59</v>
       </c>
-      <c r="H34" t="s">
-        <v>51</v>
+      <c r="H34">
+        <v>-1.67</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1814,8 +1814,8 @@
       <c r="G36" t="s">
         <v>61</v>
       </c>
-      <c r="H36">
-        <v>-1.67</v>
+      <c r="H36" t="s">
+        <v>53</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1869,8 +1869,8 @@
       <c r="G41" t="s">
         <v>68</v>
       </c>
-      <c r="H41">
-        <v>-1.67</v>
+      <c r="H41" t="s">
+        <v>51</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1891,8 +1891,8 @@
       <c r="G43" t="s">
         <v>70</v>
       </c>
-      <c r="H43" t="s">
-        <v>53</v>
+      <c r="H43">
+        <v>-1.67</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE69FC8-642A-4875-B287-2AA7822ED63C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA850D0C-109D-456F-912D-0060C2D04148}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
